--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>TC NAME</t>
   </si>
